--- a/downloaded_files/CMPS202_Tutorial-35691.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35691.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Abdullah Amir Abdel monegan khafagy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد عبدالباسط احمد عبدالفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1210352</x:t>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1114,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6644226042</x:v>
+        <x:v>45921.9733694444</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6803473727</x:v>
+        <x:v>45906.6644226042</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.3087316319</x:v>
+        <x:v>45906.6803473727</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45912.3087316319</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4183685185</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6656974537</x:v>
+        <x:v>45907.4183685185</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6800858796</x:v>
+        <x:v>45906.6656974537</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.7219340625</x:v>
+        <x:v>45906.6800858796</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4298248032</x:v>
+        <x:v>45906.7219340625</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45916.5591605671</x:v>
+        <x:v>45909.4298248032</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.414558912</x:v>
+        <x:v>45916.5591605671</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.3089276968</x:v>
+        <x:v>45907.414558912</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45912.3089276968</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.6652498495</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Tutorial-35691.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35691.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Marwan Kamel Abd Alaziz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد طارق احمد اسماعيل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Tarek Ahmed Ismail</x:t>
   </x:si>
   <x:si>
     <x:t>1210126</x:t>
@@ -380,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -803,7 +794,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45909.4739652778</x:v>
+        <x:v>45906.6649310995</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -835,7 +826,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6649310995</x:v>
+        <x:v>45912.3090423958</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -867,7 +858,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.3090423958</x:v>
+        <x:v>45906.6649211458</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -899,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6649211458</x:v>
+        <x:v>45907.4145695602</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -931,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4145695602</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -963,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45912.3084855671</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.3084855671</x:v>
+        <x:v>45906.6656153935</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6656153935</x:v>
+        <x:v>45909.477247338</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.477247338</x:v>
+        <x:v>45906.6798381134</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6798381134</x:v>
+        <x:v>45921.9733694444</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45921.9733694444</x:v>
+        <x:v>45906.6644226042</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6644226042</x:v>
+        <x:v>45906.6803473727</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6803473727</x:v>
+        <x:v>45912.3087316319</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.3087316319</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45907.4183685185</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4183685185</x:v>
+        <x:v>45906.6656974537</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6656974537</x:v>
+        <x:v>45906.6800858796</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6800858796</x:v>
+        <x:v>45906.7219340625</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.7219340625</x:v>
+        <x:v>45909.4298248032</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4298248032</x:v>
+        <x:v>45916.5591605671</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45916.5591605671</x:v>
+        <x:v>45907.414558912</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.414558912</x:v>
+        <x:v>45912.3089276968</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.3089276968</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1556,38 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45907.6652498495</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Tutorial-35691.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35691.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,12 @@
     <x:t>Ahmed Marwan Kamel Abd Alaziz</x:t>
   </x:si>
   <x:si>
+    <x:t>1240191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210126</x:t>
   </x:si>
   <x:si>
@@ -60,6 +66,15 @@
     <x:t>Adham Mohamed Sherif</x:t>
   </x:si>
   <x:si>
+    <x:t>1220041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بلال عاطف محمد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belal Atef Mohammed Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210049</x:t>
   </x:si>
   <x:si>
@@ -78,6 +93,15 @@
     <x:t>Jana Mohamed Sherif Gabr</x:t>
   </x:si>
   <x:si>
+    <x:t>1210214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم محمد عبد السلام لطفي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem mohamed abdelsalam lotfy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210099</x:t>
   </x:si>
   <x:si>
@@ -87,6 +111,15 @@
     <x:t>Khaled Ayman Abdelazem Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رامز لبيب حلمى لبيب معوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramez Labib Helmy Labib</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240074</x:t>
   </x:si>
   <x:si>
@@ -150,6 +183,15 @@
     <x:t>abdelrahman hany ahmed raafat</x:t>
   </x:si>
   <x:si>
+    <x:t>1240091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على احمد محمد محمود محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Ahmed Mohamed Mahmoud Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240334</x:t>
   </x:si>
   <x:si>
@@ -186,6 +228,15 @@
     <x:t>Mazen Ahmed Mahmoud Sami Abdel-Mottalib Shehata</x:t>
   </x:si>
   <x:si>
+    <x:t>1240255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مايا معتصم احمد سمير ابوشادي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maya Moatasem Ahmed Samir Aboshadi</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210076</x:t>
   </x:si>
   <x:si>
@@ -193,15 +244,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed sherif alaa gamal eldin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود احمد عبد الحميد محمد سالمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Ahmed Abdel-Hamid Salman</x:t>
   </x:si>
   <x:si>
     <x:t>4230175</x:t>
@@ -371,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -790,11 +832,9 @@
       <x:c r="C3" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="D3" s="2" t="s"/>
       <x:c r="E3" s="3">
-        <x:v>45906.6649310995</x:v>
+        <x:v>45927.4164457986</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -817,16 +857,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="D4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="E4" s="3">
-        <x:v>45912.3090423958</x:v>
+        <x:v>45906.6649310995</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -849,16 +889,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6649211458</x:v>
+        <x:v>45912.3090423958</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -881,16 +921,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="D6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4145695602</x:v>
+        <x:v>45927.416266088</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -913,16 +953,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45906.6649211458</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -945,16 +985,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.3084855671</x:v>
+        <x:v>45907.4145695602</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,16 +1017,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6656153935</x:v>
+        <x:v>45927.6616390857</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,16 +1049,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.477247338</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,16 +1081,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6798381134</x:v>
+        <x:v>45927.4159328704</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,16 +1113,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45921.9733694444</x:v>
+        <x:v>45912.3084855671</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,16 +1145,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6644226042</x:v>
+        <x:v>45906.6656153935</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,16 +1177,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6803473727</x:v>
+        <x:v>45909.477247338</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,16 +1209,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.3087316319</x:v>
+        <x:v>45906.6798381134</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,16 +1241,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45921.9733694444</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,16 +1273,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4183685185</x:v>
+        <x:v>45906.6644226042</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,16 +1305,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6656974537</x:v>
+        <x:v>45906.6803473727</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,16 +1337,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6800858796</x:v>
+        <x:v>45927.4144251505</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,16 +1369,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.7219340625</x:v>
+        <x:v>45912.3087316319</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,16 +1401,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4298248032</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,16 +1433,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45916.5591605671</x:v>
+        <x:v>45907.4183685185</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,16 +1465,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.414558912</x:v>
+        <x:v>45906.6656974537</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,16 +1497,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.3089276968</x:v>
+        <x:v>45927.4143003472</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,16 +1529,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45906.6800858796</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1521,16 +1561,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45909.4298248032</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1587,166 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45916.5591605671</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45907.414558912</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45912.3089276968</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45906.6645776968</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.6652498495</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Tutorial-35691.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35691.xlsx
@@ -102,6 +102,15 @@
     <x:t>Hazem mohamed abdelsalam lotfy</x:t>
   </x:si>
   <x:si>
+    <x:t>1240301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسين حسام حسين عمران عمران</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUSSEIN HOSSAM HUSSEIN OMRAN OMRAN</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210099</x:t>
   </x:si>
   <x:si>
@@ -163,15 +172,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن خالد محمد محمود جادالله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdulrhman khalid mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210059</x:t>
@@ -1058,7 +1058,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45928.6355701042</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1090,7 +1090,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4159328704</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1122,7 +1122,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.3084855671</x:v>
+        <x:v>45927.4159328704</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1154,7 +1154,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6656153935</x:v>
+        <x:v>45912.3084855671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1186,7 +1186,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.477247338</x:v>
+        <x:v>45906.6656153935</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1218,7 +1218,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6798381134</x:v>
+        <x:v>45909.477247338</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1250,7 +1250,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.9733694444</x:v>
+        <x:v>45906.6798381134</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1282,7 +1282,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6644226042</x:v>
+        <x:v>45921.9733694444</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>

--- a/downloaded_files/CMPS202_Tutorial-35691.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35691.xlsx
@@ -156,15 +156,6 @@
     <x:t>Seif Eldein Tarek Farouk Abd El Aziz Marzouk</x:t>
   </x:si>
   <x:si>
-    <x:t>1210149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الله أمير عبد المنعم خفاجي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdullah Amir Abdel monegan khafagy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240083</x:t>
   </x:si>
   <x:si>
@@ -174,13 +165,13 @@
     <x:t>Abdelrahman Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
   </x:si>
   <x:si>
-    <x:t>1210059</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن هانى احمد رافت سيد حسن عبد الرؤوف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman hany ahmed raafat</x:t>
+    <x:t>1210251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن وائل عبدالرازق السيد موافى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman wael abdelrazek el seid</x:t>
   </x:si>
   <x:si>
     <x:t>1240091</x:t>
@@ -210,6 +201,15 @@
     <x:t>Omar Sobhy Ellethy</x:t>
   </x:si>
   <x:si>
+    <x:t>1220264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر طارق رفعت محمد عبداللاه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Tarek Refaat Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230082</x:t>
   </x:si>
   <x:si>
@@ -237,13 +237,13 @@
     <x:t>Maya Moatasem Ahmed Samir Aboshadi</x:t>
   </x:si>
   <x:si>
-    <x:t>1210076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد شريف علاء جمال الدين زكى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed sherif alaa gamal eldin</x:t>
+    <x:t>1210290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو هاني حسين سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed amr hany hussein sayed</x:t>
   </x:si>
   <x:si>
     <x:t>4230175</x:t>
@@ -721,7 +721,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="37.110625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="32.650625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.960625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1250,7 +1250,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6798381134</x:v>
+        <x:v>45921.9733694444</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1282,7 +1282,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.9733694444</x:v>
+        <x:v>45929.534431794</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1314,7 +1314,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6803473727</x:v>
+        <x:v>45927.4144251505</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1346,7 +1346,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4144251505</x:v>
+        <x:v>45912.3087316319</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1378,7 +1378,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.3087316319</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1410,7 +1410,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45929.4879653935</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1538,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6800858796</x:v>
+        <x:v>45929.5359646181</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>

--- a/downloaded_files/CMPS202_Tutorial-35691.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35691.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -46,6 +46,15 @@
   </x:si>
   <x:si>
     <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد طارق احمد اسماعيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Tarek Ahmed Ismail</x:t>
   </x:si>
   <x:si>
     <x:t>1210126</x:t>
@@ -413,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +722,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -866,7 +875,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6649310995</x:v>
+        <x:v>45926.5422278935</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -898,7 +907,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.3090423958</x:v>
+        <x:v>45906.6649310995</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -930,7 +939,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.416266088</x:v>
+        <x:v>45912.3090423958</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -962,7 +971,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6649211458</x:v>
+        <x:v>45927.416266088</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -994,7 +1003,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4145695602</x:v>
+        <x:v>45906.6649211458</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1026,7 +1035,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.6616390857</x:v>
+        <x:v>45907.4145695602</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1058,7 +1067,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45928.6355701042</x:v>
+        <x:v>45927.6616390857</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1090,7 +1099,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45928.6355701042</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1122,7 +1131,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4159328704</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1154,7 +1163,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.3084855671</x:v>
+        <x:v>45927.4159328704</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1186,7 +1195,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6656153935</x:v>
+        <x:v>45912.3084855671</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1218,7 +1227,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.477247338</x:v>
+        <x:v>45906.6656153935</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1250,7 +1259,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.9733694444</x:v>
+        <x:v>45909.477247338</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1282,7 +1291,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45929.534431794</x:v>
+        <x:v>45921.9733694444</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1314,7 +1323,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4144251505</x:v>
+        <x:v>45929.534431794</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1346,7 +1355,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.3087316319</x:v>
+        <x:v>45927.4144251505</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1378,7 +1387,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45912.3087316319</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1410,7 +1419,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45929.4879653935</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1442,7 +1451,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4183685185</x:v>
+        <x:v>45929.4879653935</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1474,7 +1483,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6656974537</x:v>
+        <x:v>45907.4183685185</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1506,7 +1515,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4143003472</x:v>
+        <x:v>45906.6656974537</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1547,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45929.5359646181</x:v>
+        <x:v>45927.4143003472</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1579,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4298248032</x:v>
+        <x:v>45929.5359646181</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1611,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45916.5591605671</x:v>
+        <x:v>45909.4298248032</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1643,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.414558912</x:v>
+        <x:v>45916.5591605671</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1675,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.3089276968</x:v>
+        <x:v>45907.414558912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45912.3089276968</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1747,6 +1756,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.6652498495</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Tutorial-35691.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35691.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -118,15 +118,6 @@
   </x:si>
   <x:si>
     <x:t>HUSSEIN HOSSAM HUSSEIN OMRAN OMRAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210099</x:t>
-  </x:si>
-  <x:si>
-    <x:t>خالد ايمن عبد العظيم احمد محمد حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khaled Ayman Abdelazem Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1220238</x:t>
@@ -422,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1131,7 +1122,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45927.4159328704</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1163,7 +1154,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4159328704</x:v>
+        <x:v>45912.3084855671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1195,7 +1186,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.3084855671</x:v>
+        <x:v>45906.6656153935</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1227,7 +1218,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6656153935</x:v>
+        <x:v>45909.477247338</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1259,7 +1250,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.477247338</x:v>
+        <x:v>45921.9733694444</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1291,7 +1282,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.9733694444</x:v>
+        <x:v>45929.534431794</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1323,7 +1314,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45929.534431794</x:v>
+        <x:v>45927.4144251505</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1355,7 +1346,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4144251505</x:v>
+        <x:v>45912.3087316319</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1387,7 +1378,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.3087316319</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1419,7 +1410,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45929.4879653935</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1451,7 +1442,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45929.4879653935</x:v>
+        <x:v>45907.4183685185</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1483,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4183685185</x:v>
+        <x:v>45906.6656974537</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1515,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6656974537</x:v>
+        <x:v>45927.4143003472</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1547,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4143003472</x:v>
+        <x:v>45933.3466221065</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1579,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45929.5359646181</x:v>
+        <x:v>45909.4298248032</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1611,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4298248032</x:v>
+        <x:v>45916.5591605671</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1643,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45916.5591605671</x:v>
+        <x:v>45907.414558912</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1675,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.414558912</x:v>
+        <x:v>45912.3089276968</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1707,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.3089276968</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1756,38 +1747,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.6652498495</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
